--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Blikac-smd\git\backpack-flashlight-smd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294449EC-F2C8-4941-855D-B0E240AA4140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE90C16-4AE7-4A21-837D-53ECCE942EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F5487F0A-0FD7-4CEE-8F2F-FA92287C0C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5487F0A-0FD7-4CEE-8F2F-FA92287C0C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="blikac-smd" sheetId="2" r:id="rId1"/>
     <sheet name="List1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'blikac-smd'!$A$1:$C$18</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'blikac-smd'!$A$1:$C$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Reference</t>
   </si>
@@ -65,9 +65,6 @@
     <t>4u7</t>
   </si>
   <si>
-    <t>D1,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -158,7 +155,16 @@
     <t>ATtiny24-20SS</t>
   </si>
   <si>
-    <t>1206 Red</t>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>1206 Red low intensity</t>
+  </si>
+  <si>
+    <t>1206 Red high intensity</t>
+  </si>
+  <si>
+    <t>D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14</t>
   </si>
 </sst>
 </file>
@@ -242,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D6AAF45-C04E-43AD-B819-3C49D159DE5B}" name="blikac_smd" displayName="blikac_smd" ref="A1:C18" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{5D6AAF45-C04E-43AD-B819-3C49D159DE5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D6AAF45-C04E-43AD-B819-3C49D159DE5B}" name="blikac_smd" displayName="blikac_smd" ref="A1:C19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C19" xr:uid="{5D6AAF45-C04E-43AD-B819-3C49D159DE5B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7202B0DA-4547-40DB-8169-432587B39EAD}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{D55E59E4-13DC-456C-B498-F362ECA9130B}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="0"/>
@@ -570,20 +576,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3890ECD5-75B2-423D-B035-685D93940779}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,190 +600,201 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
@@ -795,7 +812,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
